--- a/eqServer/src/test/resources/test.xlsx
+++ b/eqServer/src/test/resources/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Timer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sami</t>
   </si>
@@ -47,8 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,6 +172,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -208,6 +224,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,9 +423,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -428,7 +461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -436,7 +469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -444,12 +477,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <f>SUM(B1:B5)+2</f>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
